--- a/rapport/분할효율대조표.xlsx
+++ b/rapport/분할효율대조표.xlsx
@@ -16,82 +16,82 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <x:si>
+    <x:t>n</x:t>
+  </x:si>
+  <x:si>
     <x:t>일반항</x:t>
   </x:si>
   <x:si>
-    <x:t>n</x:t>
-  </x:si>
-  <x:si>
     <x:t>log</x:t>
   </x:si>
   <x:si>
+    <x:t>최종항</x:t>
+  </x:si>
+  <x:si>
+    <x:t>초기항</x:t>
+  </x:si>
+  <x:si>
+    <x:t>제2항</x:t>
+  </x:si>
+  <x:si>
     <x:t>제3항</x:t>
   </x:si>
   <x:si>
-    <x:t>초기항</x:t>
-  </x:si>
-  <x:si>
-    <x:t>최종항</x:t>
-  </x:si>
-  <x:si>
-    <x:t>제2항</x:t>
-  </x:si>
-  <x:si>
     <x:t>n * log(n + 3)</x:t>
   </x:si>
   <x:si>
+    <x:t>n^2 - 0.5n + 1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>parabolique1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>parabolique2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>log(n^2 + 1)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>n * log(n + 2)</x:t>
+  </x:si>
+  <x:si>
     <x:t>(n + 1)^(2/3)</x:t>
   </x:si>
   <x:si>
-    <x:t>n^2 - 0.5n + 1</x:t>
-  </x:si>
-  <x:si>
     <x:t>최종 매도지점(+0.32%)</x:t>
   </x:si>
   <x:si>
-    <x:t>parabolique1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>parabolique2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>log(n^2 + 1)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>n * log(n + 2)</x:t>
-  </x:si>
-  <x:si>
     <x:t>n * log(n + 4)</x:t>
   </x:si>
   <x:si>
+    <x:t>1.2^n</x:t>
+  </x:si>
+  <x:si>
     <x:t>36분할</x:t>
   </x:si>
   <x:si>
-    <x:t>1.2^n</x:t>
-  </x:si>
-  <x:si>
     <x:t>매집방식</x:t>
   </x:si>
   <x:si>
+    <x:t>log(n + 1)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>(n + 1)^0.5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>총투입금액 1억</x:t>
+  </x:si>
+  <x:si>
+    <x:t>lineaire</x:t>
+  </x:si>
+  <x:si>
+    <x:t>expotentiel</x:t>
+  </x:si>
+  <x:si>
+    <x:t>최종 매수평균가</x:t>
+  </x:si>
+  <x:si>
     <x:t>0.277% 간격</x:t>
-  </x:si>
-  <x:si>
-    <x:t>총투입금액 1억</x:t>
-  </x:si>
-  <x:si>
-    <x:t>최종 매수평균가</x:t>
-  </x:si>
-  <x:si>
-    <x:t>log(n + 1)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>(n + 1)^0.5</x:t>
-  </x:si>
-  <x:si>
-    <x:t>lineaire</x:t>
-  </x:si>
-  <x:si>
-    <x:t>expotentiel</x:t>
   </x:si>
   <x:si>
     <x:t>2.5n^2 + 2.5n + 5</x:t>
@@ -147,7 +147,7 @@
       <x:patternFill patternType="gray125"/>
     </x:fill>
   </x:fills>
-  <x:borders count="1">
+  <x:borders count="13">
     <x:border>
       <x:left>
         <x:color indexed="64"/>
@@ -159,6 +159,174 @@
         <x:color indexed="64"/>
       </x:top>
       <x:bottom>
+        <x:color indexed="64"/>
+      </x:bottom>
+    </x:border>
+    <x:border>
+      <x:left style="thin">
+        <x:color indexed="64"/>
+      </x:left>
+      <x:right style="thin">
+        <x:color indexed="64"/>
+      </x:right>
+      <x:top style="thin">
+        <x:color indexed="64"/>
+      </x:top>
+      <x:bottom style="thin">
+        <x:color indexed="64"/>
+      </x:bottom>
+    </x:border>
+    <x:border>
+      <x:left style="medium">
+        <x:color indexed="64"/>
+      </x:left>
+      <x:right style="thin">
+        <x:color indexed="64"/>
+      </x:right>
+      <x:top style="thin">
+        <x:color indexed="64"/>
+      </x:top>
+      <x:bottom style="thin">
+        <x:color indexed="64"/>
+      </x:bottom>
+    </x:border>
+    <x:border>
+      <x:left style="thin">
+        <x:color indexed="64"/>
+      </x:left>
+      <x:right style="medium">
+        <x:color indexed="64"/>
+      </x:right>
+      <x:top style="thin">
+        <x:color indexed="64"/>
+      </x:top>
+      <x:bottom style="thin">
+        <x:color indexed="64"/>
+      </x:bottom>
+    </x:border>
+    <x:border>
+      <x:left style="medium">
+        <x:color indexed="64"/>
+      </x:left>
+      <x:right style="thin">
+        <x:color indexed="64"/>
+      </x:right>
+      <x:top style="thin">
+        <x:color indexed="64"/>
+      </x:top>
+      <x:bottom style="medium">
+        <x:color indexed="64"/>
+      </x:bottom>
+    </x:border>
+    <x:border>
+      <x:left style="thin">
+        <x:color indexed="64"/>
+      </x:left>
+      <x:right style="thin">
+        <x:color indexed="64"/>
+      </x:right>
+      <x:top style="thin">
+        <x:color indexed="64"/>
+      </x:top>
+      <x:bottom style="medium">
+        <x:color indexed="64"/>
+      </x:bottom>
+    </x:border>
+    <x:border>
+      <x:left style="thin">
+        <x:color indexed="64"/>
+      </x:left>
+      <x:right style="medium">
+        <x:color indexed="64"/>
+      </x:right>
+      <x:top style="thin">
+        <x:color indexed="64"/>
+      </x:top>
+      <x:bottom style="medium">
+        <x:color indexed="64"/>
+      </x:bottom>
+    </x:border>
+    <x:border>
+      <x:left style="medium">
+        <x:color indexed="64"/>
+      </x:left>
+      <x:right style="thin">
+        <x:color indexed="64"/>
+      </x:right>
+      <x:top style="medium">
+        <x:color indexed="64"/>
+      </x:top>
+      <x:bottom style="medium">
+        <x:color indexed="64"/>
+      </x:bottom>
+    </x:border>
+    <x:border>
+      <x:left style="thin">
+        <x:color indexed="64"/>
+      </x:left>
+      <x:right style="thin">
+        <x:color indexed="64"/>
+      </x:right>
+      <x:top style="medium">
+        <x:color indexed="64"/>
+      </x:top>
+      <x:bottom style="medium">
+        <x:color indexed="64"/>
+      </x:bottom>
+    </x:border>
+    <x:border>
+      <x:left style="thin">
+        <x:color indexed="64"/>
+      </x:left>
+      <x:right style="medium">
+        <x:color indexed="64"/>
+      </x:right>
+      <x:top style="medium">
+        <x:color indexed="64"/>
+      </x:top>
+      <x:bottom style="medium">
+        <x:color indexed="64"/>
+      </x:bottom>
+    </x:border>
+    <x:border>
+      <x:left style="medium">
+        <x:color indexed="64"/>
+      </x:left>
+      <x:right style="thin">
+        <x:color indexed="64"/>
+      </x:right>
+      <x:top>
+        <x:color indexed="64"/>
+      </x:top>
+      <x:bottom style="thin">
+        <x:color indexed="64"/>
+      </x:bottom>
+    </x:border>
+    <x:border>
+      <x:left style="thin">
+        <x:color indexed="64"/>
+      </x:left>
+      <x:right style="thin">
+        <x:color indexed="64"/>
+      </x:right>
+      <x:top>
+        <x:color indexed="64"/>
+      </x:top>
+      <x:bottom style="thin">
+        <x:color indexed="64"/>
+      </x:bottom>
+    </x:border>
+    <x:border>
+      <x:left style="thin">
+        <x:color indexed="64"/>
+      </x:left>
+      <x:right style="medium">
+        <x:color indexed="64"/>
+      </x:right>
+      <x:top>
+        <x:color indexed="64"/>
+      </x:top>
+      <x:bottom style="thin">
         <x:color indexed="64"/>
       </x:bottom>
     </x:border>
@@ -225,20 +393,71 @@
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="5">
+  <x:cellXfs count="22">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <x:alignment horizontal="right" vertical="center"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="right" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="right" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="right" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <x:alignment horizontal="center" vertical="center"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="center" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="center" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <x:alignment horizontal="right" vertical="center"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
   </x:cellXfs>
@@ -431,7 +650,7 @@
   <x:dimension ref="A2:I14"/>
   <x:sheetViews>
     <x:sheetView tabSelected="1" topLeftCell="A1" zoomScaleNormal="100" workbookViewId="0">
-      <x:selection activeCell="G7" activeCellId="0" sqref="G7:G7"/>
+      <x:selection activeCell="F17" activeCellId="0" sqref="F17:F17"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="13.35"/>
@@ -445,260 +664,291 @@
   <x:sheetData>
     <x:row r="2" spans="1:9">
       <x:c r="A2" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="B2" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="B2" s="15" t="s">
         <x:v>18</x:v>
       </x:c>
-      <x:c r="C2" s="2" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="D2" s="2" t="s">
+      <x:c r="C2" s="16" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="D2" s="16" t="s">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="E2" s="2" t="s">
+      <x:c r="E2" s="16" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="F2" s="16" t="s">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="F2" s="2" t="s">
+      <x:c r="G2" s="16" t="s">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="G2" s="2" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="H2" s="2" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="I2" s="2" t="s">
-        <x:v>10</x:v>
+      <x:c r="H2" s="16" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="I2" s="17" t="s">
+        <x:v>14</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:9">
       <x:c r="A3" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="B3" t="s">
         <x:v>25</x:v>
       </x:c>
-      <x:c r="C3" s="1" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="D3" s="1">
+      <x:c r="B3" s="18" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="C3" s="19" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="D3" s="19">
         <x:v>28256</x:v>
       </x:c>
-      <x:c r="H3">
+      <x:c r="E3" s="19"/>
+      <x:c r="F3" s="19"/>
+      <x:c r="G3" s="19"/>
+      <x:c r="H3" s="20">
         <x:v>91.652000000000001</x:v>
       </x:c>
-      <x:c r="I3">
+      <x:c r="I3" s="21">
         <x:v>91.945999999999998</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:9">
       <x:c r="A4" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="B4" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="B4" s="7" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C4" s="4" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="D4" s="4">
+        <x:v>6420</x:v>
+      </x:c>
+      <x:c r="E4" s="4"/>
+      <x:c r="F4" s="4"/>
+      <x:c r="G4" s="4"/>
+      <x:c r="H4" s="3">
+        <x:v>92.631</x:v>
+      </x:c>
+      <x:c r="I4" s="8">
+        <x:v>92.927000000000007</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="2:9">
+      <x:c r="B5" s="7" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="C5" s="4" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="D5" s="4">
+        <x:v>23607</x:v>
+      </x:c>
+      <x:c r="E5" s="4"/>
+      <x:c r="F5" s="4"/>
+      <x:c r="G5" s="4"/>
+      <x:c r="H5" s="3">
+        <x:v>92.695999999999998</x:v>
+      </x:c>
+      <x:c r="I5" s="8">
+        <x:v>92.992999999999995</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="2:9" s="2" customFormat="1">
+      <x:c r="B6" s="9"/>
+      <x:c r="C6" s="6" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D6" s="6">
+        <x:v>51600</x:v>
+      </x:c>
+      <x:c r="E6" s="6">
+        <x:v>130225</x:v>
+      </x:c>
+      <x:c r="F6" s="6">
+        <x:v>226780</x:v>
+      </x:c>
+      <x:c r="G6" s="6">
+        <x:v>6150727</x:v>
+      </x:c>
+      <x:c r="H6" s="5">
+        <x:v>93.177000000000007</x:v>
+      </x:c>
+      <x:c r="I6" s="10">
+        <x:v>93.475999999999999</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="2:9">
+      <x:c r="B7" s="7"/>
+      <x:c r="C7" s="4" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D7" s="4">
+        <x:v>64219</x:v>
+      </x:c>
+      <x:c r="E7" s="4">
+        <x:v>149113</x:v>
+      </x:c>
+      <x:c r="F7" s="4">
+        <x:v>249007</x:v>
+      </x:c>
+      <x:c r="G7" s="4">
+        <x:v>6109669</x:v>
+      </x:c>
+      <x:c r="H7" s="3">
+        <x:v>93.197000000000003</x:v>
+      </x:c>
+      <x:c r="I7" s="8">
+        <x:v>93.495999999999995</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="2:9">
+      <x:c r="B8" s="7"/>
+      <x:c r="C8" s="4" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="D8" s="4">
+        <x:v>73603</x:v>
+      </x:c>
+      <x:c r="E8" s="4">
+        <x:v>163882</x:v>
+      </x:c>
+      <x:c r="F8" s="4">
+        <x:v>266972</x:v>
+      </x:c>
+      <x:c r="G8" s="4">
+        <x:v>6073230</x:v>
+      </x:c>
+      <x:c r="H8" s="3">
+        <x:v>93.215000000000003</x:v>
+      </x:c>
+      <x:c r="I8" s="8">
+        <x:v>93.513000000000005</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="2:9">
+      <x:c r="B9" s="7" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="C9" s="4" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="D9" s="4">
+        <x:v>150150</x:v>
+      </x:c>
+      <x:c r="E9" s="4"/>
+      <x:c r="F9" s="4"/>
+      <x:c r="G9" s="4"/>
+      <x:c r="H9" s="3">
+        <x:v>93.475999999999999</x:v>
+      </x:c>
+      <x:c r="I9" s="8">
+        <x:v>93.775999999999996</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10" spans="2:9">
+      <x:c r="B10" s="7"/>
+      <x:c r="C10" s="4" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="D10" s="4">
+        <x:v>632653</x:v>
+      </x:c>
+      <x:c r="E10" s="4"/>
+      <x:c r="F10" s="4"/>
+      <x:c r="G10" s="4">
+        <x:v>4425258</x:v>
+      </x:c>
+      <x:c r="H10" s="3">
+        <x:v>93.962000000000003</x:v>
+      </x:c>
+      <x:c r="I10" s="8">
+        <x:v>94.263000000000005</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11" spans="2:9">
+      <x:c r="B11" s="7"/>
+      <x:c r="C11" s="4" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="D11" s="4">
+        <x:v>931127</x:v>
+      </x:c>
+      <x:c r="E11" s="4"/>
+      <x:c r="F11" s="4"/>
+      <x:c r="G11" s="4">
+        <x:v>4004931</x:v>
+      </x:c>
+      <x:c r="H11" s="3">
+        <x:v>94.197999999999993</x:v>
+      </x:c>
+      <x:c r="I11" s="8">
+        <x:v>94.5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12" spans="2:9">
+      <x:c r="B12" s="7"/>
+      <x:c r="C12" s="4" t="s">
         <x:v>11</x:v>
       </x:c>
-      <x:c r="C4" s="1" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="D4" s="1">
-        <x:v>6420</x:v>
-      </x:c>
-      <x:c r="H4">
-        <x:v>92.631</x:v>
-      </x:c>
-      <x:c r="I4">
-        <x:v>92.927000000000007</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="5" spans="2:9">
-      <x:c r="B5" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="C5" s="1" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="D5" s="1">
-        <x:v>23607</x:v>
-      </x:c>
-      <x:c r="H5">
-        <x:v>92.695999999999998</x:v>
-      </x:c>
-      <x:c r="I5">
-        <x:v>92.992999999999995</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="6" spans="3:9" s="4" customFormat="1">
-      <x:c r="C6" s="3" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="D6" s="3">
-        <x:v>51600</x:v>
-      </x:c>
-      <x:c r="E6" s="3">
-        <x:v>130225</x:v>
-      </x:c>
-      <x:c r="F6" s="3">
-        <x:v>226780</x:v>
-      </x:c>
-      <x:c r="G6" s="3">
-        <x:v>6150727</x:v>
-      </x:c>
-      <x:c r="H6" s="4">
-        <x:v>93.177000000000007</x:v>
-      </x:c>
-      <x:c r="I6" s="4">
-        <x:v>93.475999999999999</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="7" spans="3:9">
-      <x:c r="C7" s="1" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="D7" s="1">
-        <x:v>64219</x:v>
-      </x:c>
-      <x:c r="E7" s="1">
-        <x:v>149113</x:v>
-      </x:c>
-      <x:c r="F7" s="1">
-        <x:v>249007</x:v>
-      </x:c>
-      <x:c r="G7" s="1">
-        <x:v>6109669</x:v>
-      </x:c>
-      <x:c r="H7">
-        <x:v>93.197000000000003</x:v>
-      </x:c>
-      <x:c r="I7">
-        <x:v>93.495999999999995</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="8" spans="3:9">
-      <x:c r="C8" s="1" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="D8" s="1">
-        <x:v>73603</x:v>
-      </x:c>
-      <x:c r="E8" s="1">
-        <x:v>163882</x:v>
-      </x:c>
-      <x:c r="F8" s="1">
-        <x:v>266972</x:v>
-      </x:c>
-      <x:c r="G8" s="1">
-        <x:v>6073230</x:v>
-      </x:c>
-      <x:c r="H8">
-        <x:v>93.215000000000003</x:v>
-      </x:c>
-      <x:c r="I8">
-        <x:v>93.513000000000005</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="9" spans="2:9">
-      <x:c r="B9" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="C9" s="1" t="s">
+      <x:c r="D12" s="4">
+        <x:v>359676</x:v>
+      </x:c>
+      <x:c r="E12" s="4"/>
+      <x:c r="F12" s="4"/>
+      <x:c r="G12" s="4"/>
+      <x:c r="H12" s="3">
+        <x:v>94.266999999999996</x:v>
+      </x:c>
+      <x:c r="I12" s="8">
+        <x:v>94.569000000000003</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="13" spans="2:9">
+      <x:c r="B13" s="7" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="C13" s="4" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="D13" s="4">
+        <x:v>697818</x:v>
+      </x:c>
+      <x:c r="E13" s="4"/>
+      <x:c r="F13" s="4"/>
+      <x:c r="G13" s="4"/>
+      <x:c r="H13" s="3">
+        <x:v>94.352000000000004</x:v>
+      </x:c>
+      <x:c r="I13" s="8">
+        <x:v>94.653999999999996</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="14" spans="2:9">
+      <x:c r="B14" s="11"/>
+      <x:c r="C14" s="12">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="D9" s="1">
-        <x:v>150150</x:v>
-      </x:c>
-      <x:c r="H9">
-        <x:v>93.475999999999999</x:v>
-      </x:c>
-      <x:c r="I9">
-        <x:v>93.775999999999996</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="10" spans="3:9">
-      <x:c r="C10" s="1" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="D10" s="1">
-        <x:v>632653</x:v>
-      </x:c>
-      <x:c r="G10" s="1">
-        <x:v>4425258</x:v>
-      </x:c>
-      <x:c r="H10">
-        <x:v>93.962000000000003</x:v>
-      </x:c>
-      <x:c r="I10">
-        <x:v>94.263000000000005</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="11" spans="3:9">
-      <x:c r="C11" s="1" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="D11" s="1">
-        <x:v>931127</x:v>
-      </x:c>
-      <x:c r="G11" s="1">
-        <x:v>4004931</x:v>
-      </x:c>
-      <x:c r="H11">
-        <x:v>94.197999999999993</x:v>
-      </x:c>
-      <x:c r="I11">
-        <x:v>94.5</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="12" spans="3:9">
-      <x:c r="C12" s="1" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="D12" s="1">
-        <x:v>359676</x:v>
-      </x:c>
-      <x:c r="H12">
-        <x:v>94.266999999999996</x:v>
-      </x:c>
-      <x:c r="I12">
-        <x:v>94.569000000000003</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="13" spans="2:9">
-      <x:c r="B13" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="C13" s="1" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="D13" s="1">
-        <x:v>697818</x:v>
-      </x:c>
-      <x:c r="H13">
-        <x:v>94.352000000000004</x:v>
-      </x:c>
-      <x:c r="I13">
-        <x:v>94.653999999999996</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="14" spans="3:9">
-      <x:c r="C14" s="1">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="D14" s="1">
+      <x:c r="D14" s="12">
         <x:v>2777777</x:v>
       </x:c>
-      <x:c r="G14" s="1">
+      <x:c r="E14" s="12"/>
+      <x:c r="F14" s="12"/>
+      <x:c r="G14" s="12">
         <x:v>2777777</x:v>
       </x:c>
-      <x:c r="H14">
+      <x:c r="H14" s="13">
         <x:v>95.064999999999998</x:v>
       </x:c>
-      <x:c r="I14">
+      <x:c r="I14" s="14">
         <x:v>95.369</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51166665554046631" footer="0.51166665554046631"/>
+  <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51152777671813965" footer="0.51152777671813965"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
 </x:worksheet>
 </file>
@@ -713,7 +963,7 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="13.35"/>
   <x:sheetData/>
-  <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51166665554046631" footer="0.51166665554046631"/>
+  <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51152777671813965" footer="0.51152777671813965"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
 </x:worksheet>
 </file>
@@ -728,7 +978,7 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="13.35"/>
   <x:sheetData/>
-  <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51166665554046631" footer="0.51166665554046631"/>
+  <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51152777671813965" footer="0.51152777671813965"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
 </x:worksheet>
 </file>